--- a/Employee/static/xlsx/Employee_template_import.xlsx
+++ b/Employee/static/xlsx/Employee_template_import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\Odoo17\server\project_individual\Employee\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F1274-0CE7-43A8-818F-B69E5D5C4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D0188-ACD4-441D-B347-EC9510673279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AFA2075-74C8-4405-BFCD-902373990B20}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Mã nhân sự</t>
   </si>
   <si>
-    <t>Phân loại nhân sự</t>
-  </si>
-  <si>
     <t>Ngày sinh</t>
   </si>
   <si>
@@ -56,21 +53,9 @@
     <t>Ngày chính thức</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Phòng ban</t>
-  </si>
-  <si>
-    <t>S102</t>
-  </si>
-  <si>
     <t>Nhân sự toàn thời gian</t>
   </si>
   <si>
-    <t>Nhân sự Tổng hợp</t>
-  </si>
-  <si>
     <t>18/08/2001</t>
   </si>
   <si>
@@ -89,7 +74,34 @@
     <t>Vị trí công việc</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Vị trí công tác</t>
+  </si>
+  <si>
+    <t>Loại nhân sự</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>admin@cfg.com</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Nhân sự phòng HR</t>
+  </si>
+  <si>
+    <t>CFG Thái Bình</t>
   </si>
 </sst>
 </file>
@@ -99,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -160,10 +180,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -182,8 +203,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,110 +521,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F85264F-357B-45DA-9102-227820C108AD}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.59765625" customWidth="1"/>
     <col min="2" max="2" width="17.8984375" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="5" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="24.69921875" customWidth="1"/>
-    <col min="10" max="10" width="19.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" customWidth="1"/>
+    <col min="11" max="11" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{93EE7533-EB28-4FFB-A1D4-838B41242635}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>